--- a/Code/Results/Cases/Case_5_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.5930416776081</v>
+        <v>21.48967468088328</v>
       </c>
       <c r="C2">
-        <v>15.31426431094635</v>
+        <v>15.22288658281326</v>
       </c>
       <c r="D2">
-        <v>9.641468400650769</v>
+        <v>9.673414417659821</v>
       </c>
       <c r="E2">
-        <v>30.27335729185775</v>
+        <v>11.54913474817772</v>
       </c>
       <c r="F2">
-        <v>63.36623562454805</v>
+        <v>63.13792406414996</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -436,33 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.21607786395407</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>18.45903733982063</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.94182763512295</v>
+        <v>19.86726751891091</v>
       </c>
       <c r="C3">
-        <v>14.15224137660326</v>
+        <v>14.08913576263374</v>
       </c>
       <c r="D3">
-        <v>9.134418679190853</v>
+        <v>9.181617575283173</v>
       </c>
       <c r="E3">
-        <v>27.90201080046388</v>
+        <v>10.87066311557257</v>
       </c>
       <c r="F3">
-        <v>59.23323129759114</v>
+        <v>59.1035560016056</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -471,33 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.77781471413956</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>17.1128798170566</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.88914723600651</v>
+        <v>18.82988255115193</v>
       </c>
       <c r="C4">
-        <v>13.41436208989293</v>
+        <v>13.36632013153913</v>
       </c>
       <c r="D4">
-        <v>8.81943229767549</v>
+        <v>8.875392590172845</v>
       </c>
       <c r="E4">
-        <v>26.4001011693852</v>
+        <v>10.44724256333907</v>
       </c>
       <c r="F4">
-        <v>56.63163783030399</v>
+        <v>56.5588486900652</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -506,33 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.86148923376332</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>16.25236419242411</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.44988153553488</v>
+        <v>18.39636202508602</v>
       </c>
       <c r="C5">
-        <v>13.10708760521564</v>
+        <v>13.06471417811968</v>
       </c>
       <c r="D5">
-        <v>8.690079485893914</v>
+        <v>8.749501169169331</v>
       </c>
       <c r="E5">
-        <v>25.77547994796565</v>
+        <v>10.2729870108317</v>
       </c>
       <c r="F5">
-        <v>55.55490008413963</v>
+        <v>55.50465868981816</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -541,33 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.47923784006786</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15.89281034718837</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37630625208791</v>
+        <v>18.32371415469502</v>
       </c>
       <c r="C6">
-        <v>13.05565533612485</v>
+        <v>13.01419750584175</v>
       </c>
       <c r="D6">
-        <v>8.668539146370692</v>
+        <v>8.728530103235949</v>
       </c>
       <c r="E6">
-        <v>25.67097454377404</v>
+        <v>10.24395016191453</v>
       </c>
       <c r="F6">
-        <v>55.37509964952098</v>
+        <v>55.32857152583305</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -576,33 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.41521825015213</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15.83256062712745</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.88326545349761</v>
+        <v>18.82408009169394</v>
       </c>
       <c r="C7">
-        <v>13.41024528182168</v>
+        <v>13.36228154839891</v>
       </c>
       <c r="D7">
-        <v>8.817691891332354</v>
+        <v>8.873699256051658</v>
       </c>
       <c r="E7">
-        <v>26.3917295180553</v>
+        <v>10.44489935611053</v>
       </c>
       <c r="F7">
-        <v>56.61718407073273</v>
+        <v>56.54470123756249</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -611,33 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.85637045368599</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16.24755153320389</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.03142150285701</v>
+        <v>20.93855992436619</v>
       </c>
       <c r="C8">
-        <v>14.91837085660998</v>
+        <v>14.83728976018429</v>
       </c>
       <c r="D8">
-        <v>9.467338775773163</v>
+        <v>9.504698129052892</v>
       </c>
       <c r="E8">
-        <v>29.46456594880043</v>
+        <v>11.31660622049983</v>
       </c>
       <c r="F8">
-        <v>61.95403868709889</v>
+        <v>61.76069326004941</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -646,33 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.72674685649321</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>18.00171189808312</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.96425336208845</v>
+        <v>24.77959008961215</v>
       </c>
       <c r="C9">
-        <v>17.70654388033174</v>
+        <v>17.53591435687999</v>
       </c>
       <c r="D9">
-        <v>10.71814087144543</v>
+        <v>10.71158823330155</v>
       </c>
       <c r="E9">
-        <v>35.18318865991579</v>
+        <v>12.97436853230108</v>
       </c>
       <c r="F9">
-        <v>71.95392833443734</v>
+        <v>71.47746518602794</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -681,33 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.15705002084835</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>21.19013875150352</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.73256036606471</v>
+        <v>27.45136087982408</v>
       </c>
       <c r="C10">
-        <v>19.69429811769857</v>
+        <v>19.43028709716982</v>
       </c>
       <c r="D10">
-        <v>11.63585970898959</v>
+        <v>11.58756733939433</v>
       </c>
       <c r="E10">
-        <v>39.29862998329961</v>
+        <v>14.16939388196684</v>
       </c>
       <c r="F10">
-        <v>79.10799772574943</v>
+        <v>78.36266351165997</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -716,33 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.57787730894809</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>23.40943940149395</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.98065620614872</v>
+        <v>28.64443460287016</v>
       </c>
       <c r="C11">
-        <v>20.59843711223131</v>
+        <v>20.28145992762643</v>
       </c>
       <c r="D11">
-        <v>12.05771808747228</v>
+        <v>11.98660390058497</v>
       </c>
       <c r="E11">
-        <v>41.18402590109332</v>
+        <v>14.71156148595304</v>
       </c>
       <c r="F11">
-        <v>82.40634127187953</v>
+        <v>81.46057623429729</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -751,33 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.67139915768451</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>24.40085596623594</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.45337419359292</v>
+        <v>29.09409793678151</v>
       </c>
       <c r="C12">
-        <v>20.94229306036187</v>
+        <v>20.6031685885207</v>
       </c>
       <c r="D12">
-        <v>12.21866357100158</v>
+        <v>12.13812659116142</v>
       </c>
       <c r="E12">
-        <v>41.90361994712024</v>
+        <v>14.91708591210388</v>
       </c>
       <c r="F12">
-        <v>83.67299602432429</v>
+        <v>82.63117153136453</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -786,33 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.08595073056869</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>24.7745790859158</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.35152915667425</v>
+        <v>28.99732959218467</v>
       </c>
       <c r="C13">
-        <v>20.86814303788038</v>
+        <v>20.53389328664063</v>
       </c>
       <c r="D13">
-        <v>12.18393669518752</v>
+        <v>12.10546850229206</v>
       </c>
       <c r="E13">
-        <v>41.74831914079138</v>
+        <v>14.87280464224693</v>
       </c>
       <c r="F13">
-        <v>83.40006264277096</v>
+        <v>82.37912928628134</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -821,33 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.99661910139174</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>24.69415027136326</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.01953358380468</v>
+        <v>28.6814642312557</v>
       </c>
       <c r="C14">
-        <v>20.62668654006071</v>
+        <v>20.30793338376473</v>
       </c>
       <c r="D14">
-        <v>12.070931236435</v>
+        <v>11.99905913248237</v>
       </c>
       <c r="E14">
-        <v>41.24308866376178</v>
+        <v>14.72846282704622</v>
       </c>
       <c r="F14">
-        <v>82.51049576959046</v>
+        <v>81.55691609247546</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -856,33 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.70548469757907</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24.43163062919418</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.81624777060956</v>
+        <v>28.48774680726407</v>
       </c>
       <c r="C15">
-        <v>20.47903195769813</v>
+        <v>20.16947733066696</v>
       </c>
       <c r="D15">
-        <v>12.00188811691323</v>
+        <v>11.93394622840077</v>
       </c>
       <c r="E15">
-        <v>40.93448555360519</v>
+        <v>14.64009252731112</v>
       </c>
       <c r="F15">
-        <v>81.96592203499357</v>
+        <v>81.05304167826198</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -891,33 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.52727071743515</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>24.27063814277081</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.65090342008798</v>
+        <v>27.37302861519093</v>
       </c>
       <c r="C16">
-        <v>19.63532633324433</v>
+        <v>19.3745211327435</v>
       </c>
       <c r="D16">
-        <v>11.60842270895296</v>
+        <v>11.5615270563503</v>
       </c>
       <c r="E16">
-        <v>39.17597453473761</v>
+        <v>14.13396621090565</v>
       </c>
       <c r="F16">
-        <v>78.89604505422733</v>
+        <v>78.15970993511941</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -926,33 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.50638173556981</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>23.3443556161637</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.9341969003974</v>
+        <v>26.68416494078233</v>
       </c>
       <c r="C17">
-        <v>19.1186471799564</v>
+        <v>18.88471575529991</v>
       </c>
       <c r="D17">
-        <v>11.36851430809609</v>
+        <v>11.33341115911658</v>
       </c>
       <c r="E17">
-        <v>38.10289033103219</v>
+        <v>13.8233654392678</v>
       </c>
       <c r="F17">
-        <v>77.0378577902725</v>
+        <v>76.37749490957626</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -961,33 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.8791039388534</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>22.77204571429261</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.52078481924167</v>
+        <v>26.28577022448316</v>
       </c>
       <c r="C18">
-        <v>18.82134745446209</v>
+        <v>18.60193133542952</v>
       </c>
       <c r="D18">
-        <v>11.2308948796635</v>
+        <v>11.20223137538693</v>
       </c>
       <c r="E18">
-        <v>37.48665101656534</v>
+        <v>13.64454670600262</v>
       </c>
       <c r="F18">
-        <v>75.96789576649748</v>
+        <v>75.34901494807019</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -996,33 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.51746785439278</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>22.44109507234602</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.38056327375358</v>
+        <v>26.15047720233139</v>
       </c>
       <c r="C19">
-        <v>18.72062761530233</v>
+        <v>18.50597858432945</v>
       </c>
       <c r="D19">
-        <v>11.18434842765949</v>
+        <v>11.15781195292667</v>
       </c>
       <c r="E19">
-        <v>37.27807397582684</v>
+        <v>13.58396171613123</v>
       </c>
       <c r="F19">
-        <v>75.60532286277345</v>
+        <v>75.00014305689331</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1031,33 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.3948385464467</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>22.32871187826019</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.01060298106059</v>
+        <v>26.75771403293723</v>
       </c>
       <c r="C20">
-        <v>19.1736514808843</v>
+        <v>18.93696026673495</v>
       </c>
       <c r="D20">
-        <v>11.39401120416306</v>
+        <v>11.35768961141455</v>
       </c>
       <c r="E20">
-        <v>38.2169981720345</v>
+        <v>13.85644427071607</v>
       </c>
       <c r="F20">
-        <v>77.23576303470929</v>
+        <v>76.56755099164833</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1066,33 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.94595596462618</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>22.83314665996523</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.11703012765708</v>
+        <v>28.77428942621443</v>
       </c>
       <c r="C21">
-        <v>20.69755387584964</v>
+        <v>20.37431157916582</v>
       </c>
       <c r="D21">
-        <v>12.10408570414772</v>
+        <v>12.03029966122783</v>
       </c>
       <c r="E21">
-        <v>41.39129834494867</v>
+        <v>14.77084955240275</v>
       </c>
       <c r="F21">
-        <v>82.77170901251243</v>
+        <v>81.79846584882634</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1101,33 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.79097062298249</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>24.50877702669735</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.49543773057986</v>
+        <v>30.08053319152525</v>
       </c>
       <c r="C22">
-        <v>21.70319134543207</v>
+        <v>21.31072649516632</v>
       </c>
       <c r="D22">
-        <v>12.57555725570744</v>
+        <v>12.47254965721422</v>
       </c>
       <c r="E22">
-        <v>43.5014628258392</v>
+        <v>15.37003467969031</v>
       </c>
       <c r="F22">
-        <v>86.46650090988966</v>
+        <v>85.26402347139936</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1136,33 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.00057812851025</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>25.59454506397276</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.75888895442124</v>
+        <v>29.38401064502206</v>
       </c>
       <c r="C23">
-        <v>21.16495514144808</v>
+        <v>20.81085672655166</v>
       </c>
       <c r="D23">
-        <v>12.32300470981726</v>
+        <v>12.23613002365594</v>
       </c>
       <c r="E23">
-        <v>42.37039277140481</v>
+        <v>15.04991702736773</v>
       </c>
       <c r="F23">
-        <v>84.4918503549236</v>
+        <v>83.39628071124845</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1171,33 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.3539892046093</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>25.01554911332375</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.97606417422981</v>
+        <v>26.72446991080179</v>
       </c>
       <c r="C24">
-        <v>19.14878493366472</v>
+        <v>18.91334429171484</v>
       </c>
       <c r="D24">
-        <v>11.38248314084342</v>
+        <v>11.34671344974522</v>
       </c>
       <c r="E24">
-        <v>38.16540812820649</v>
+        <v>13.84149014076234</v>
       </c>
       <c r="F24">
-        <v>77.14629553612026</v>
+        <v>76.48163883456121</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1206,33 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.9157354080591</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>22.80552897473747</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.92579209539752</v>
+        <v>23.7698488137433</v>
       </c>
       <c r="C25">
-        <v>16.96655822984497</v>
+        <v>16.82384956417737</v>
       </c>
       <c r="D25">
-        <v>10.38119193287375</v>
+        <v>10.38772759989976</v>
       </c>
       <c r="E25">
-        <v>33.6599934318349</v>
+        <v>12.53081261889726</v>
       </c>
       <c r="F25">
-        <v>69.2910619455364</v>
+        <v>68.89891031086152</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1241,12 +1385,18 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.25037893311682</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>20.35171417812849</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.48967468088328</v>
+        <v>21.9384416870081</v>
       </c>
       <c r="C2">
-        <v>15.22288658281326</v>
+        <v>11.60954327571741</v>
       </c>
       <c r="D2">
-        <v>9.673414417659821</v>
+        <v>3.922725042635979</v>
       </c>
       <c r="E2">
-        <v>11.54913474817772</v>
+        <v>7.077065275608829</v>
       </c>
       <c r="F2">
-        <v>63.13792406414996</v>
+        <v>20.68170796462402</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.176991237037321</v>
       </c>
       <c r="M2">
-        <v>18.45903733982063</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.63390162751168</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>16.20183726068302</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.86726751891091</v>
+        <v>20.4458941432416</v>
       </c>
       <c r="C3">
-        <v>14.08913576263374</v>
+        <v>11.16161623748366</v>
       </c>
       <c r="D3">
-        <v>9.181617575283173</v>
+        <v>3.842924756305957</v>
       </c>
       <c r="E3">
-        <v>10.87066311557257</v>
+        <v>7.09869069964001</v>
       </c>
       <c r="F3">
-        <v>59.1035560016056</v>
+        <v>19.94012234273522</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,16 +486,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.919926843520551</v>
       </c>
       <c r="M3">
-        <v>17.1128798170566</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>11.80492189257001</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>15.84571670366552</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.82988255115193</v>
+        <v>19.47563157914545</v>
       </c>
       <c r="C4">
-        <v>13.36632013153913</v>
+        <v>10.87688016812917</v>
       </c>
       <c r="D4">
-        <v>8.875392590172845</v>
+        <v>3.792854432874136</v>
       </c>
       <c r="E4">
-        <v>10.44724256333907</v>
+        <v>7.117050836911909</v>
       </c>
       <c r="F4">
-        <v>56.5588486900652</v>
+        <v>19.49271788282089</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.761028987845139</v>
       </c>
       <c r="M4">
-        <v>16.25236419242411</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>11.91335574900107</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>15.64052248393209</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.39636202508602</v>
+        <v>19.06661759492056</v>
       </c>
       <c r="C5">
-        <v>13.06471417811968</v>
+        <v>10.75851423087692</v>
       </c>
       <c r="D5">
-        <v>8.749501169169331</v>
+        <v>3.772197305744652</v>
       </c>
       <c r="E5">
-        <v>10.2729870108317</v>
+        <v>7.125764877361637</v>
       </c>
       <c r="F5">
-        <v>55.50465868981816</v>
+        <v>19.31263497186179</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.696101835339191</v>
       </c>
       <c r="M5">
-        <v>15.89281034718837</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>11.95840589185112</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>15.56030164589217</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.32371415469502</v>
+        <v>18.99787574355322</v>
       </c>
       <c r="C6">
-        <v>13.01419750584175</v>
+        <v>10.73872213222245</v>
       </c>
       <c r="D6">
-        <v>8.728530103235949</v>
+        <v>3.768752424748333</v>
       </c>
       <c r="E6">
-        <v>10.24395016191453</v>
+        <v>7.127284932274006</v>
       </c>
       <c r="F6">
-        <v>55.32857152583305</v>
+        <v>19.28287479369498</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.685312985910601</v>
       </c>
       <c r="M6">
-        <v>15.83256062712745</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>11.96593856617623</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>15.54718632177528</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.82408009169394</v>
+        <v>19.470170752032</v>
       </c>
       <c r="C7">
-        <v>13.36228154839891</v>
+        <v>10.87529314019094</v>
       </c>
       <c r="D7">
-        <v>8.873699256051658</v>
+        <v>3.792576845642852</v>
       </c>
       <c r="E7">
-        <v>10.44489935611053</v>
+        <v>7.117163428518904</v>
       </c>
       <c r="F7">
-        <v>56.54470123756249</v>
+        <v>19.49027983166667</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.76015393952509</v>
       </c>
       <c r="M7">
-        <v>16.24755153320389</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>11.91395981709965</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>15.63942683545841</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.93855992436619</v>
+        <v>21.43493087197405</v>
       </c>
       <c r="C8">
-        <v>14.83728976018429</v>
+        <v>11.45717254917385</v>
       </c>
       <c r="D8">
-        <v>9.504698129052892</v>
+        <v>3.895442242868474</v>
       </c>
       <c r="E8">
-        <v>11.31660622049983</v>
+        <v>7.083439155889529</v>
       </c>
       <c r="F8">
-        <v>61.76069326004941</v>
+        <v>20.42450557348939</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.088627579544362</v>
       </c>
       <c r="M8">
-        <v>18.00171189808312</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>11.69215838118827</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>16.07626269803864</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.77959008961215</v>
+        <v>24.86473385698723</v>
       </c>
       <c r="C9">
-        <v>17.53591435687999</v>
+        <v>12.51724014220576</v>
       </c>
       <c r="D9">
-        <v>10.71158823330155</v>
+        <v>4.087966397921896</v>
       </c>
       <c r="E9">
-        <v>12.97436853230108</v>
+        <v>7.059717589316003</v>
       </c>
       <c r="F9">
-        <v>71.47746518602794</v>
+        <v>22.30950047343507</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.720784456641377</v>
       </c>
       <c r="M9">
-        <v>21.19013875150352</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.28441040866087</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>17.03873591253145</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.45136087982408</v>
+        <v>27.13246383572389</v>
       </c>
       <c r="C10">
-        <v>19.43028709716982</v>
+        <v>13.24233530491975</v>
       </c>
       <c r="D10">
-        <v>11.58756733939433</v>
+        <v>4.222964552967539</v>
       </c>
       <c r="E10">
-        <v>14.16939388196684</v>
+        <v>7.07105661974338</v>
       </c>
       <c r="F10">
-        <v>78.36266351165997</v>
+        <v>23.7148958622016</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.173808677011648</v>
       </c>
       <c r="M10">
-        <v>23.40943940149395</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.00153744685362</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>17.80863491089329</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.64443460287016</v>
+        <v>28.11066531630854</v>
       </c>
       <c r="C11">
-        <v>20.28145992762643</v>
+        <v>13.5598592788828</v>
       </c>
       <c r="D11">
-        <v>11.98660390058497</v>
+        <v>4.282820340472682</v>
       </c>
       <c r="E11">
-        <v>14.71156148595304</v>
+        <v>7.083099661054497</v>
       </c>
       <c r="F11">
-        <v>81.46057623429729</v>
+        <v>24.35671797296765</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.376743455354754</v>
       </c>
       <c r="M11">
-        <v>24.40085596623594</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>10.87654104261875</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>18.17208920833376</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.09409793678151</v>
+        <v>28.47351587396847</v>
       </c>
       <c r="C12">
-        <v>20.6031685885207</v>
+        <v>13.67828313597234</v>
       </c>
       <c r="D12">
-        <v>12.13812659116142</v>
+        <v>4.305250647080894</v>
       </c>
       <c r="E12">
-        <v>14.91708591210388</v>
+        <v>7.088703230387735</v>
       </c>
       <c r="F12">
-        <v>82.63117153136453</v>
+        <v>24.59999268405222</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.453092944264643</v>
       </c>
       <c r="M12">
-        <v>24.7745790859158</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>10.82974701674789</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>18.31158757789335</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.99732959218467</v>
+        <v>28.39570459746574</v>
       </c>
       <c r="C13">
-        <v>20.53389328664063</v>
+        <v>13.65285976967451</v>
       </c>
       <c r="D13">
-        <v>12.10546850229206</v>
+        <v>4.300430546779721</v>
       </c>
       <c r="E13">
-        <v>14.87280464224693</v>
+        <v>7.08744915736287</v>
       </c>
       <c r="F13">
-        <v>82.37912928628134</v>
+        <v>24.54759058048388</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.436672456424256</v>
       </c>
       <c r="M13">
-        <v>24.69415027136326</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>10.83980077202992</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>18.28146160709286</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.6814642312557</v>
+        <v>28.14066840460175</v>
       </c>
       <c r="C14">
-        <v>20.30793338376473</v>
+        <v>13.56963867972875</v>
       </c>
       <c r="D14">
-        <v>11.99905913248237</v>
+        <v>4.284670486152957</v>
       </c>
       <c r="E14">
-        <v>14.72846282704622</v>
+        <v>7.083539458325847</v>
       </c>
       <c r="F14">
-        <v>81.55691609247546</v>
+        <v>24.37672833382023</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.383034967906413</v>
       </c>
       <c r="M14">
-        <v>24.43163062919418</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>10.87268039373462</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>18.18352860371686</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.48774680726407</v>
+        <v>27.98346834538325</v>
       </c>
       <c r="C15">
-        <v>20.16947733066696</v>
+        <v>13.51842580591288</v>
       </c>
       <c r="D15">
-        <v>11.93394622840077</v>
+        <v>4.274985947723485</v>
       </c>
       <c r="E15">
-        <v>14.64009252731112</v>
+        <v>7.081282085343263</v>
       </c>
       <c r="F15">
-        <v>81.05304167826198</v>
+        <v>24.27209702005431</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.350114497412374</v>
       </c>
       <c r="M15">
-        <v>24.27063814277081</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>10.892890693997</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>18.12378388962856</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.37302861519093</v>
+        <v>27.06747046042077</v>
       </c>
       <c r="C16">
-        <v>19.3745211327435</v>
+        <v>13.22133242355225</v>
       </c>
       <c r="D16">
-        <v>11.5615270563503</v>
+        <v>4.219020476383266</v>
       </c>
       <c r="E16">
-        <v>14.13396621090565</v>
+        <v>7.070412647232127</v>
       </c>
       <c r="F16">
-        <v>78.15970993511941</v>
+        <v>23.67298985145416</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.160479018380364</v>
       </c>
       <c r="M16">
-        <v>23.3443556161637</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.00978114570737</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>17.7851452499841</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.68416494078233</v>
+        <v>26.49193222894982</v>
       </c>
       <c r="C17">
-        <v>18.88471575529991</v>
+        <v>13.03588444435899</v>
       </c>
       <c r="D17">
-        <v>11.33341115911658</v>
+        <v>4.184280112084564</v>
       </c>
       <c r="E17">
-        <v>13.8233654392678</v>
+        <v>7.065545596648986</v>
       </c>
       <c r="F17">
-        <v>76.37749490957626</v>
+        <v>23.30599576749284</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.043302607075335</v>
       </c>
       <c r="M17">
-        <v>22.77204571429261</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.0824391711739</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>17.58076136064939</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.28577022448316</v>
+        <v>26.15586499460951</v>
       </c>
       <c r="C18">
-        <v>18.60193133542952</v>
+        <v>12.92806145362043</v>
       </c>
       <c r="D18">
-        <v>11.20223137538693</v>
+        <v>4.164152612733088</v>
       </c>
       <c r="E18">
-        <v>13.64454670600262</v>
+        <v>7.063391025066937</v>
       </c>
       <c r="F18">
-        <v>75.34901494807019</v>
+        <v>23.09515163169162</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.975611587623664</v>
       </c>
       <c r="M18">
-        <v>22.44109507234602</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.12457615425088</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>17.46445168509862</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.15047720233139</v>
+        <v>26.04121085247677</v>
       </c>
       <c r="C19">
-        <v>18.50597858432945</v>
+        <v>12.89135699892564</v>
       </c>
       <c r="D19">
-        <v>11.15781195292667</v>
+        <v>4.157313138902833</v>
       </c>
       <c r="E19">
-        <v>13.58396171613123</v>
+        <v>7.062770664085225</v>
       </c>
       <c r="F19">
-        <v>75.00014305689331</v>
+        <v>23.02380929421782</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.952643553021967</v>
       </c>
       <c r="M19">
-        <v>22.32871187826019</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.1389021921761</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>17.42528648918157</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.75771403293723</v>
+        <v>26.55371938642013</v>
       </c>
       <c r="C20">
-        <v>18.93696026673495</v>
+        <v>13.05574591434719</v>
       </c>
       <c r="D20">
-        <v>11.35768961141455</v>
+        <v>4.187993459869405</v>
       </c>
       <c r="E20">
-        <v>13.85644427071607</v>
+        <v>7.065996582281948</v>
       </c>
       <c r="F20">
-        <v>76.56755099164833</v>
+        <v>23.34503899057917</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.055807043791514</v>
       </c>
       <c r="M20">
-        <v>22.83314665996523</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.07466872898893</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>17.60238963834191</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.77428942621443</v>
+        <v>28.21578338328153</v>
       </c>
       <c r="C21">
-        <v>20.37431157916582</v>
+        <v>13.59413230020412</v>
       </c>
       <c r="D21">
-        <v>12.03029966122783</v>
+        <v>4.289306088071677</v>
       </c>
       <c r="E21">
-        <v>14.77084955240275</v>
+        <v>7.084659095883469</v>
       </c>
       <c r="F21">
-        <v>81.79846584882634</v>
+        <v>24.42690932897335</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.398803411343675</v>
       </c>
       <c r="M21">
-        <v>24.50877702669735</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.86300812103672</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>18.21224350569699</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.08053319152525</v>
+        <v>29.25794880979673</v>
       </c>
       <c r="C22">
-        <v>21.31072649516632</v>
+        <v>13.9354032045015</v>
       </c>
       <c r="D22">
-        <v>12.47254965721422</v>
+        <v>4.354140584173667</v>
       </c>
       <c r="E22">
-        <v>15.37003467969031</v>
+        <v>7.102961259802491</v>
       </c>
       <c r="F22">
-        <v>85.26402347139936</v>
+        <v>25.13528126112138</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.620057299839099</v>
       </c>
       <c r="M22">
-        <v>25.59454506397276</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.72782640454354</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>18.6216841573341</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.38401064502206</v>
+        <v>28.70572354801536</v>
       </c>
       <c r="C23">
-        <v>20.81085672655166</v>
+        <v>13.75424172873324</v>
       </c>
       <c r="D23">
-        <v>12.23613002365594</v>
+        <v>4.319667104492457</v>
       </c>
       <c r="E23">
-        <v>15.04991702736773</v>
+        <v>7.092616765030392</v>
       </c>
       <c r="F23">
-        <v>83.39628071124845</v>
+        <v>24.75712454308879</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.502248963112171</v>
       </c>
       <c r="M23">
-        <v>25.01554911332375</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.7996831559088</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>18.40217365178706</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.72446991080179</v>
+        <v>26.52580156323825</v>
       </c>
       <c r="C24">
-        <v>18.91334429171484</v>
+        <v>13.04677029828339</v>
       </c>
       <c r="D24">
-        <v>11.34671344974522</v>
+        <v>4.186315136577499</v>
       </c>
       <c r="E24">
-        <v>13.84149014076234</v>
+        <v>7.065790691145057</v>
       </c>
       <c r="F24">
-        <v>76.48163883456121</v>
+        <v>23.32738708556737</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.050154795935761</v>
       </c>
       <c r="M24">
-        <v>22.80552897473747</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.07818060995912</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>17.59260777420254</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.7698488137433</v>
+        <v>23.98158931717855</v>
       </c>
       <c r="C25">
-        <v>16.82384956417737</v>
+        <v>12.23963385083408</v>
       </c>
       <c r="D25">
-        <v>10.38772759989976</v>
+        <v>4.036958910751893</v>
       </c>
       <c r="E25">
-        <v>12.53081261889726</v>
+        <v>7.061296484896102</v>
       </c>
       <c r="F25">
-        <v>68.89891031086152</v>
+        <v>21.79519522151935</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.551512982293057</v>
       </c>
       <c r="M25">
-        <v>20.35171417812849</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>11.39179914025692</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>16.76719282346987</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.9384416870081</v>
+        <v>16.38160980024002</v>
       </c>
       <c r="C2">
-        <v>11.60954327571741</v>
+        <v>10.18239560898671</v>
       </c>
       <c r="D2">
-        <v>3.922725042635979</v>
+        <v>4.804074217130813</v>
       </c>
       <c r="E2">
-        <v>7.077065275608829</v>
+        <v>11.72429133267088</v>
       </c>
       <c r="F2">
-        <v>20.68170796462402</v>
+        <v>25.20946671743103</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.176991237037321</v>
+        <v>9.711364670693239</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.63390162751168</v>
+        <v>17.31939639268868</v>
       </c>
       <c r="O2">
-        <v>16.20183726068302</v>
+        <v>22.41874780881982</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.4458941432416</v>
+        <v>15.86753923791684</v>
       </c>
       <c r="C3">
-        <v>11.16161623748366</v>
+        <v>10.01151163393853</v>
       </c>
       <c r="D3">
-        <v>3.842924756305957</v>
+        <v>4.779721577372539</v>
       </c>
       <c r="E3">
-        <v>7.09869069964001</v>
+        <v>11.76251506379261</v>
       </c>
       <c r="F3">
-        <v>19.94012234273522</v>
+        <v>25.16341593570551</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,16 +486,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.919926843520551</v>
+        <v>9.686041345469683</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.80492189257001</v>
+        <v>17.37509038927632</v>
       </c>
       <c r="O3">
-        <v>15.84571670366552</v>
+        <v>22.44492829154824</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.47563157914545</v>
+        <v>15.5458657298105</v>
       </c>
       <c r="C4">
-        <v>10.87688016812917</v>
+        <v>9.90426553881055</v>
       </c>
       <c r="D4">
-        <v>3.792854432874136</v>
+        <v>4.764547223297559</v>
       </c>
       <c r="E4">
-        <v>7.117050836911909</v>
+        <v>11.78801211125533</v>
       </c>
       <c r="F4">
-        <v>19.49271788282089</v>
+        <v>25.143107057851</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.761028987845139</v>
+        <v>9.672210771992139</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.91335574900107</v>
+        <v>17.41115727559874</v>
       </c>
       <c r="O4">
-        <v>15.64052248393209</v>
+        <v>22.4672224202852</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.06661759492056</v>
+        <v>15.41347028136338</v>
       </c>
       <c r="C5">
-        <v>10.75851423087692</v>
+        <v>9.860012208264775</v>
       </c>
       <c r="D5">
-        <v>3.772197305744652</v>
+        <v>4.758309742973792</v>
       </c>
       <c r="E5">
-        <v>7.125764877361637</v>
+        <v>11.79891187238898</v>
       </c>
       <c r="F5">
-        <v>19.31263497186179</v>
+        <v>25.13683911752402</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.696101835339191</v>
+        <v>9.667010711863437</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.95840589185112</v>
+        <v>17.42632624371685</v>
       </c>
       <c r="O5">
-        <v>15.56030164589217</v>
+        <v>22.47786733923504</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.99787574355322</v>
+        <v>15.3914132631475</v>
       </c>
       <c r="C6">
-        <v>10.73872213222245</v>
+        <v>9.852631805290203</v>
       </c>
       <c r="D6">
-        <v>3.768752424748333</v>
+        <v>4.757270821126591</v>
       </c>
       <c r="E6">
-        <v>7.127284932274006</v>
+        <v>11.80075253267929</v>
       </c>
       <c r="F6">
-        <v>19.28287479369498</v>
+        <v>25.13591971222768</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.685312985910601</v>
+        <v>9.666173688873959</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.96593856617623</v>
+        <v>17.42887354318452</v>
       </c>
       <c r="O6">
-        <v>15.54718632177528</v>
+        <v>22.47972900130826</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.470170752032</v>
+        <v>15.54408522280159</v>
       </c>
       <c r="C7">
-        <v>10.87529314019094</v>
+        <v>9.903670902241812</v>
       </c>
       <c r="D7">
-        <v>3.792576845642852</v>
+        <v>4.764463317760629</v>
       </c>
       <c r="E7">
-        <v>7.117163428518904</v>
+        <v>11.78815704670752</v>
       </c>
       <c r="F7">
-        <v>19.49027983166667</v>
+        <v>25.14301439082782</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.76015393952509</v>
+        <v>9.672138871784121</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.91395981709965</v>
+        <v>17.41135993944956</v>
       </c>
       <c r="O7">
-        <v>15.63942683545841</v>
+        <v>22.46735967136167</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.43493087197405</v>
+        <v>16.20572898778028</v>
       </c>
       <c r="C8">
-        <v>11.45717254917385</v>
+        <v>10.12397711324735</v>
       </c>
       <c r="D8">
-        <v>3.895442242868474</v>
+        <v>4.795724615319326</v>
       </c>
       <c r="E8">
-        <v>7.083439155889529</v>
+        <v>11.73704986756083</v>
       </c>
       <c r="F8">
-        <v>20.42450557348939</v>
+        <v>25.19193855231814</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.088627579544362</v>
+        <v>9.702279116006553</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.69215838118827</v>
+        <v>17.33821208352207</v>
       </c>
       <c r="O8">
-        <v>16.07626269803864</v>
+        <v>22.4264818690059</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.86473385698723</v>
+        <v>17.44709633362995</v>
       </c>
       <c r="C9">
-        <v>12.51724014220576</v>
+        <v>10.53612478726997</v>
       </c>
       <c r="D9">
-        <v>4.087966397921896</v>
+        <v>4.855184124267863</v>
       </c>
       <c r="E9">
-        <v>7.059717589316003</v>
+        <v>11.65293086739459</v>
       </c>
       <c r="F9">
-        <v>22.30950047343507</v>
+        <v>25.35077301574046</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.720784456641377</v>
+        <v>9.774824328275713</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.28441040866087</v>
+        <v>17.20956346224825</v>
       </c>
       <c r="O9">
-        <v>17.03873591253145</v>
+        <v>22.39581291220275</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.13246383572389</v>
+        <v>18.31499493306902</v>
       </c>
       <c r="C10">
-        <v>13.24233530491975</v>
+        <v>10.82498361837261</v>
       </c>
       <c r="D10">
-        <v>4.222964552967539</v>
+        <v>4.897633674536299</v>
       </c>
       <c r="E10">
-        <v>7.07105661974338</v>
+        <v>11.60096446137827</v>
       </c>
       <c r="F10">
-        <v>23.7148958622016</v>
+        <v>25.50523847229332</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.173808677011648</v>
+        <v>9.83603700677849</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.00153744685362</v>
+        <v>17.12399764355785</v>
       </c>
       <c r="O10">
-        <v>17.80863491089329</v>
+        <v>22.40360266226525</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.11066531630854</v>
+        <v>18.69845852675738</v>
       </c>
       <c r="C11">
-        <v>13.5598592788828</v>
+        <v>10.95300663760591</v>
       </c>
       <c r="D11">
-        <v>4.282820340472682</v>
+        <v>4.916653289882637</v>
       </c>
       <c r="E11">
-        <v>7.083099661054497</v>
+        <v>11.57946346187436</v>
       </c>
       <c r="F11">
-        <v>24.35671797296765</v>
+        <v>25.58354111756756</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.376743455354754</v>
+        <v>9.865535496712411</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.87654104261875</v>
+        <v>17.08700162297917</v>
       </c>
       <c r="O11">
-        <v>18.17208920833376</v>
+        <v>22.41374512255915</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.47351587396847</v>
+        <v>18.8419061243457</v>
       </c>
       <c r="C12">
-        <v>13.67828313597234</v>
+        <v>11.0009716236232</v>
       </c>
       <c r="D12">
-        <v>4.305250647080894</v>
+        <v>4.923811672917263</v>
       </c>
       <c r="E12">
-        <v>7.088703230387735</v>
+        <v>11.57162949955315</v>
       </c>
       <c r="F12">
-        <v>24.59999268405222</v>
+        <v>25.61433008646883</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.453092944264643</v>
+        <v>9.876937203540944</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.82974701674789</v>
+        <v>17.07326848758353</v>
       </c>
       <c r="O12">
-        <v>18.31158757789335</v>
+        <v>22.41853435160063</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.39570459746574</v>
+        <v>18.81109239058177</v>
       </c>
       <c r="C13">
-        <v>13.65285976967451</v>
+        <v>10.99066482644747</v>
       </c>
       <c r="D13">
-        <v>4.300430546779721</v>
+        <v>4.922271974287917</v>
       </c>
       <c r="E13">
-        <v>7.08744915736287</v>
+        <v>11.5733029781708</v>
       </c>
       <c r="F13">
-        <v>24.54759058048388</v>
+        <v>25.60764885205515</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.436672456424256</v>
+        <v>9.87447146095522</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.83980077202992</v>
+        <v>17.07621388159733</v>
       </c>
       <c r="O13">
-        <v>18.28146160709286</v>
+        <v>22.41746073705292</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.14066840460175</v>
+        <v>18.71029604893467</v>
       </c>
       <c r="C14">
-        <v>13.56963867972875</v>
+        <v>10.95696321552785</v>
       </c>
       <c r="D14">
-        <v>4.284670486152957</v>
+        <v>4.91724310682964</v>
       </c>
       <c r="E14">
-        <v>7.083539458325847</v>
+        <v>11.57881278179713</v>
       </c>
       <c r="F14">
-        <v>24.37672833382023</v>
+        <v>25.58605145906719</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.383034967906413</v>
+        <v>9.866468924610917</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.87268039373462</v>
+        <v>17.0858662537808</v>
       </c>
       <c r="O14">
-        <v>18.18352860371686</v>
+        <v>22.41412013161662</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.98346834538325</v>
+        <v>18.64832233372133</v>
       </c>
       <c r="C15">
-        <v>13.51842580591288</v>
+        <v>10.93625217875815</v>
       </c>
       <c r="D15">
-        <v>4.274985947723485</v>
+        <v>4.914156996831938</v>
       </c>
       <c r="E15">
-        <v>7.081282085343263</v>
+        <v>11.58222781927851</v>
       </c>
       <c r="F15">
-        <v>24.27209702005431</v>
+        <v>25.57296999122017</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.350114497412374</v>
+        <v>9.861597063718474</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.892890693997</v>
+        <v>17.09181458873178</v>
       </c>
       <c r="O15">
-        <v>18.12378388962856</v>
+        <v>22.41219740897689</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.06747046042077</v>
+        <v>18.2896949045513</v>
       </c>
       <c r="C16">
-        <v>13.22133242355225</v>
+        <v>10.81654652166827</v>
       </c>
       <c r="D16">
-        <v>4.219020476383266</v>
+        <v>4.896384664393759</v>
       </c>
       <c r="E16">
-        <v>7.070412647232127</v>
+        <v>11.60241267832618</v>
       </c>
       <c r="F16">
-        <v>23.67298985145416</v>
+        <v>25.50028141175169</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.160479018380364</v>
+        <v>9.834141927751967</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.00978114570737</v>
+        <v>17.12645415109041</v>
       </c>
       <c r="O16">
-        <v>17.7851452499841</v>
+        <v>22.40307260082283</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.49193222894982</v>
+        <v>18.06668512887175</v>
       </c>
       <c r="C17">
-        <v>13.03588444435899</v>
+        <v>10.74222442694634</v>
       </c>
       <c r="D17">
-        <v>4.184280112084564</v>
+        <v>4.885405909066028</v>
       </c>
       <c r="E17">
-        <v>7.065545596648986</v>
+        <v>11.61534354889982</v>
       </c>
       <c r="F17">
-        <v>23.30599576749284</v>
+        <v>25.45773525419227</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.043302607075335</v>
+        <v>9.817717921181316</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.0824391711739</v>
+        <v>17.14819768412915</v>
       </c>
       <c r="O17">
-        <v>17.58076136064939</v>
+        <v>22.39916495663608</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.15586499460951</v>
+        <v>17.93735452347722</v>
       </c>
       <c r="C18">
-        <v>12.92806145362043</v>
+        <v>10.69915975231866</v>
       </c>
       <c r="D18">
-        <v>4.164152612733088</v>
+        <v>4.879063963711205</v>
       </c>
       <c r="E18">
-        <v>7.063391025066937</v>
+        <v>11.62298232970384</v>
       </c>
       <c r="F18">
-        <v>23.09515163169162</v>
+        <v>25.43402138970391</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.975611587623664</v>
+        <v>9.808427213557735</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.12457615425088</v>
+        <v>17.1608855380464</v>
       </c>
       <c r="O18">
-        <v>17.46445168509862</v>
+        <v>22.39753858226135</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.04121085247677</v>
+        <v>17.89338732059304</v>
       </c>
       <c r="C19">
-        <v>12.89135699892564</v>
+        <v>10.68452531611363</v>
       </c>
       <c r="D19">
-        <v>4.157313138902833</v>
+        <v>4.876912073037501</v>
       </c>
       <c r="E19">
-        <v>7.062770664085225</v>
+        <v>11.62560324694334</v>
       </c>
       <c r="F19">
-        <v>23.02380929421782</v>
+        <v>25.4261229093143</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.952643553021967</v>
+        <v>9.805308512121519</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.1389021921761</v>
+        <v>17.16521263435205</v>
       </c>
       <c r="O19">
-        <v>17.42528648918157</v>
+        <v>22.39709460874864</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.55371938642013</v>
+        <v>18.09053572516746</v>
       </c>
       <c r="C20">
-        <v>13.05574591434719</v>
+        <v>10.7501691161663</v>
       </c>
       <c r="D20">
-        <v>4.187993459869405</v>
+        <v>4.886577452427536</v>
       </c>
       <c r="E20">
-        <v>7.065996582281948</v>
+        <v>11.61394620003767</v>
       </c>
       <c r="F20">
-        <v>23.34503899057917</v>
+        <v>25.46218608462889</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.055807043791514</v>
+        <v>9.819450189906849</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.07466872898893</v>
+        <v>17.14586426439381</v>
       </c>
       <c r="O20">
-        <v>17.60238963834191</v>
+        <v>22.39951664023446</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.21578338328153</v>
+        <v>18.73995115648635</v>
       </c>
       <c r="C21">
-        <v>13.59413230020412</v>
+        <v>10.96687637918014</v>
       </c>
       <c r="D21">
-        <v>4.289306088071677</v>
+        <v>4.918721416105727</v>
       </c>
       <c r="E21">
-        <v>7.084659095883469</v>
+        <v>11.57718605639836</v>
       </c>
       <c r="F21">
-        <v>24.42690932897335</v>
+        <v>25.59236442088508</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.398803411343675</v>
+        <v>9.86881323925223</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.86300812103672</v>
+        <v>17.08302362170176</v>
       </c>
       <c r="O21">
-        <v>18.21224350569699</v>
+        <v>22.41507561426766</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.25794880979673</v>
+        <v>19.15406241053286</v>
       </c>
       <c r="C22">
-        <v>13.9354032045015</v>
+        <v>11.10549584522914</v>
       </c>
       <c r="D22">
-        <v>4.354140584173667</v>
+        <v>4.93947231688106</v>
       </c>
       <c r="E22">
-        <v>7.102961259802491</v>
+        <v>11.55495663310814</v>
       </c>
       <c r="F22">
-        <v>25.13528126112138</v>
+        <v>25.68406362455992</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.620057299839099</v>
+        <v>9.902419684276548</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.72782640454354</v>
+        <v>17.04356465002658</v>
       </c>
       <c r="O22">
-        <v>18.6216841573341</v>
+        <v>22.43077203741115</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.70572354801536</v>
+        <v>18.93402697072784</v>
       </c>
       <c r="C23">
-        <v>13.75424172873324</v>
+        <v>11.03179653963262</v>
       </c>
       <c r="D23">
-        <v>4.319667104492457</v>
+        <v>4.928421380498945</v>
       </c>
       <c r="E23">
-        <v>7.092616765030392</v>
+        <v>11.56665646612094</v>
       </c>
       <c r="F23">
-        <v>24.75712454308879</v>
+        <v>25.63452279002153</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.502248963112171</v>
+        <v>9.884362423331353</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.7996831559088</v>
+        <v>17.06447750582902</v>
       </c>
       <c r="O23">
-        <v>18.40217365178706</v>
+        <v>22.42188914826833</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.52580156323825</v>
+        <v>18.07975634695653</v>
       </c>
       <c r="C24">
-        <v>13.04677029828339</v>
+        <v>10.746578366317</v>
       </c>
       <c r="D24">
-        <v>4.186315136577499</v>
+        <v>4.886047891297605</v>
       </c>
       <c r="E24">
-        <v>7.065790691145057</v>
+        <v>11.6145773040244</v>
       </c>
       <c r="F24">
-        <v>23.32738708556737</v>
+        <v>25.46017153755001</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.050154795935761</v>
+        <v>9.818666558297615</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.07818060995912</v>
+        <v>17.14691862023178</v>
       </c>
       <c r="O24">
-        <v>17.59260777420254</v>
+        <v>22.39935571219266</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.98158931717855</v>
+        <v>17.11836764928993</v>
       </c>
       <c r="C25">
-        <v>12.23963385083408</v>
+        <v>10.42695016197747</v>
       </c>
       <c r="D25">
-        <v>4.036958910751893</v>
+        <v>4.839307638973628</v>
       </c>
       <c r="E25">
-        <v>7.061296484896102</v>
+        <v>11.67396139963776</v>
       </c>
       <c r="F25">
-        <v>21.79519522151935</v>
+        <v>25.3011208861387</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.551512982293057</v>
+        <v>9.753787459348533</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.39179914025692</v>
+        <v>17.24278948507242</v>
       </c>
       <c r="O25">
-        <v>16.76719282346987</v>
+        <v>22.39879228313004</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.38160980024002</v>
+        <v>21.93844168700815</v>
       </c>
       <c r="C2">
-        <v>10.18239560898671</v>
+        <v>11.60954327571731</v>
       </c>
       <c r="D2">
-        <v>4.804074217130813</v>
+        <v>3.922725042636094</v>
       </c>
       <c r="E2">
-        <v>11.72429133267088</v>
+        <v>7.077065275608837</v>
       </c>
       <c r="F2">
-        <v>25.20946671743103</v>
+        <v>20.68170796462399</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.711364670693239</v>
+        <v>7.176991237037342</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.31939639268868</v>
+        <v>11.63390162751164</v>
       </c>
       <c r="O2">
-        <v>22.41874780881982</v>
+        <v>16.201837260683</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.86753923791684</v>
+        <v>20.44589414324163</v>
       </c>
       <c r="C3">
-        <v>10.01151163393853</v>
+        <v>11.16161623748368</v>
       </c>
       <c r="D3">
-        <v>4.779721577372539</v>
+        <v>3.842924756306074</v>
       </c>
       <c r="E3">
-        <v>11.76251506379261</v>
+        <v>7.098690699639952</v>
       </c>
       <c r="F3">
-        <v>25.16341593570551</v>
+        <v>19.94012234273499</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,16 +486,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.686041345469683</v>
+        <v>6.919926843520563</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.37509038927632</v>
+        <v>11.80492189256991</v>
       </c>
       <c r="O3">
-        <v>22.44492829154824</v>
+        <v>15.84571670366535</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.5458657298105</v>
+        <v>19.47563157914551</v>
       </c>
       <c r="C4">
-        <v>9.90426553881055</v>
+        <v>10.87688016812903</v>
       </c>
       <c r="D4">
-        <v>4.764547223297559</v>
+        <v>3.792854432874145</v>
       </c>
       <c r="E4">
-        <v>11.78801211125533</v>
+        <v>7.117050836911814</v>
       </c>
       <c r="F4">
-        <v>25.143107057851</v>
+        <v>19.49271788282078</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.672210771992139</v>
+        <v>6.761028987845114</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.41115727559874</v>
+        <v>11.91335574900097</v>
       </c>
       <c r="O4">
-        <v>22.4672224202852</v>
+        <v>15.64052248393195</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.41347028136338</v>
+        <v>19.06661759492054</v>
       </c>
       <c r="C5">
-        <v>9.860012208264775</v>
+        <v>10.75851423087691</v>
       </c>
       <c r="D5">
-        <v>4.758309742973792</v>
+        <v>3.772197305744704</v>
       </c>
       <c r="E5">
-        <v>11.79891187238898</v>
+        <v>7.125764877361575</v>
       </c>
       <c r="F5">
-        <v>25.13683911752402</v>
+        <v>19.3126349718618</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.667010711863437</v>
+        <v>6.696101835339162</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.42632624371685</v>
+        <v>11.95840589185112</v>
       </c>
       <c r="O5">
-        <v>22.47786733923504</v>
+        <v>15.5603016458922</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.3914132631475</v>
+        <v>18.99787574355314</v>
       </c>
       <c r="C6">
-        <v>9.852631805290203</v>
+        <v>10.7387221322226</v>
       </c>
       <c r="D6">
-        <v>4.757270821126591</v>
+        <v>3.768752424748398</v>
       </c>
       <c r="E6">
-        <v>11.80075253267929</v>
+        <v>7.127284932274051</v>
       </c>
       <c r="F6">
-        <v>25.13591971222768</v>
+        <v>19.282874793695</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.666173688873959</v>
+        <v>6.685312985910566</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.42887354318452</v>
+        <v>11.96593856617623</v>
       </c>
       <c r="O6">
-        <v>22.47972900130826</v>
+        <v>15.54718632177534</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.54408522280159</v>
+        <v>19.47017075203209</v>
       </c>
       <c r="C7">
-        <v>9.903670902241812</v>
+        <v>10.87529314019063</v>
       </c>
       <c r="D7">
-        <v>4.764463317760629</v>
+        <v>3.792576845642866</v>
       </c>
       <c r="E7">
-        <v>11.78815704670752</v>
+        <v>7.117163428518851</v>
       </c>
       <c r="F7">
-        <v>25.14301439082782</v>
+        <v>19.49027983166659</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.672138871784121</v>
+        <v>6.760153939525127</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.41135993944956</v>
+        <v>11.91395981709958</v>
       </c>
       <c r="O7">
-        <v>22.46735967136167</v>
+        <v>15.63942683545832</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.20572898778028</v>
+        <v>21.43493087197402</v>
       </c>
       <c r="C8">
-        <v>10.12397711324735</v>
+        <v>11.45717254917373</v>
       </c>
       <c r="D8">
-        <v>4.795724615319326</v>
+        <v>3.895442242868585</v>
       </c>
       <c r="E8">
-        <v>11.73704986756083</v>
+        <v>7.08343915588953</v>
       </c>
       <c r="F8">
-        <v>25.19193855231814</v>
+        <v>20.42450557348938</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.702279116006553</v>
+        <v>7.088627579544375</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.33821208352207</v>
+        <v>11.69215838118827</v>
       </c>
       <c r="O8">
-        <v>22.4264818690059</v>
+        <v>16.07626269803868</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.44709633362995</v>
+        <v>24.86473385698725</v>
       </c>
       <c r="C9">
-        <v>10.53612478726997</v>
+        <v>12.51724014220585</v>
       </c>
       <c r="D9">
-        <v>4.855184124267863</v>
+        <v>4.087966397921861</v>
       </c>
       <c r="E9">
-        <v>11.65293086739459</v>
+        <v>7.059717589315893</v>
       </c>
       <c r="F9">
-        <v>25.35077301574046</v>
+        <v>22.30950047343503</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.774824328275713</v>
+        <v>7.720784456641325</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.20956346224825</v>
+        <v>11.28441040866084</v>
       </c>
       <c r="O9">
-        <v>22.39581291220275</v>
+        <v>17.03873591253139</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.31499493306902</v>
+        <v>27.13246383572386</v>
       </c>
       <c r="C10">
-        <v>10.82498361837261</v>
+        <v>13.24233530491969</v>
       </c>
       <c r="D10">
-        <v>4.897633674536299</v>
+        <v>4.222964552967556</v>
       </c>
       <c r="E10">
-        <v>11.60096446137827</v>
+        <v>7.071056619743363</v>
       </c>
       <c r="F10">
-        <v>25.50523847229332</v>
+        <v>23.71489586220159</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.83603700677849</v>
+        <v>8.173808677011632</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.12399764355785</v>
+        <v>11.00153744685359</v>
       </c>
       <c r="O10">
-        <v>22.40360266226525</v>
+        <v>17.80863491089327</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.69845852675738</v>
+        <v>28.11066531630858</v>
       </c>
       <c r="C11">
-        <v>10.95300663760591</v>
+        <v>13.55985927888273</v>
       </c>
       <c r="D11">
-        <v>4.916653289882637</v>
+        <v>4.282820340472838</v>
       </c>
       <c r="E11">
-        <v>11.57946346187436</v>
+        <v>7.083099661054503</v>
       </c>
       <c r="F11">
-        <v>25.58354111756756</v>
+        <v>24.35671797296759</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.865535496712411</v>
+        <v>8.376743455354765</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.08700162297917</v>
+        <v>10.87654104261872</v>
       </c>
       <c r="O11">
-        <v>22.41374512255915</v>
+        <v>18.17208920833373</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.8419061243457</v>
+        <v>28.47351587396847</v>
       </c>
       <c r="C12">
-        <v>11.0009716236232</v>
+        <v>13.67828313597225</v>
       </c>
       <c r="D12">
-        <v>4.923811672917263</v>
+        <v>4.305250647081039</v>
       </c>
       <c r="E12">
-        <v>11.57162949955315</v>
+        <v>7.08870323038769</v>
       </c>
       <c r="F12">
-        <v>25.61433008646883</v>
+        <v>24.59999268405221</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.876937203540944</v>
+        <v>8.453092944264652</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.07326848758353</v>
+        <v>10.82974701674793</v>
       </c>
       <c r="O12">
-        <v>22.41853435160063</v>
+        <v>18.31158757789337</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.81109239058177</v>
+        <v>28.39570459746576</v>
       </c>
       <c r="C13">
-        <v>10.99066482644747</v>
+        <v>13.65285976967452</v>
       </c>
       <c r="D13">
-        <v>4.922271974287917</v>
+        <v>4.300430546779676</v>
       </c>
       <c r="E13">
-        <v>11.5733029781708</v>
+        <v>7.087449157362917</v>
       </c>
       <c r="F13">
-        <v>25.60764885205515</v>
+        <v>24.54759058048388</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.87447146095522</v>
+        <v>8.436672456424279</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.07621388159733</v>
+        <v>10.83980077202992</v>
       </c>
       <c r="O13">
-        <v>22.41746073705292</v>
+        <v>18.28146160709286</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.71029604893467</v>
+        <v>28.14066840460174</v>
       </c>
       <c r="C14">
-        <v>10.95696321552785</v>
+        <v>13.56963867972892</v>
       </c>
       <c r="D14">
-        <v>4.91724310682964</v>
+        <v>4.284670486153002</v>
       </c>
       <c r="E14">
-        <v>11.57881278179713</v>
+        <v>7.083539458325849</v>
       </c>
       <c r="F14">
-        <v>25.58605145906719</v>
+        <v>24.3767283338202</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.866468924610917</v>
+        <v>8.383034967906397</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.0858662537808</v>
+        <v>10.87268039373462</v>
       </c>
       <c r="O14">
-        <v>22.41412013161662</v>
+        <v>18.18352860371684</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.64832233372133</v>
+        <v>27.9834683453833</v>
       </c>
       <c r="C15">
-        <v>10.93625217875815</v>
+        <v>13.51842580591269</v>
       </c>
       <c r="D15">
-        <v>4.914156996831938</v>
+        <v>4.2749859477234</v>
       </c>
       <c r="E15">
-        <v>11.58222781927851</v>
+        <v>7.08128208534326</v>
       </c>
       <c r="F15">
-        <v>25.57296999122017</v>
+        <v>24.27209702005432</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.861597063718474</v>
+        <v>8.350114497412369</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.09181458873178</v>
+        <v>10.892890693997</v>
       </c>
       <c r="O15">
-        <v>22.41219740897689</v>
+        <v>18.12378388962854</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.2896949045513</v>
+        <v>27.06747046042079</v>
       </c>
       <c r="C16">
-        <v>10.81654652166827</v>
+        <v>13.22133242355227</v>
       </c>
       <c r="D16">
-        <v>4.896384664393759</v>
+        <v>4.219020476383266</v>
       </c>
       <c r="E16">
-        <v>11.60241267832618</v>
+        <v>7.070412647232074</v>
       </c>
       <c r="F16">
-        <v>25.50028141175169</v>
+        <v>23.67298985145415</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.834141927751967</v>
+        <v>8.160479018380361</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.12645415109041</v>
+        <v>11.00978114570737</v>
       </c>
       <c r="O16">
-        <v>22.40307260082283</v>
+        <v>17.7851452499841</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.06668512887175</v>
+        <v>26.49193222894982</v>
       </c>
       <c r="C17">
-        <v>10.74222442694634</v>
+        <v>13.0358844443592</v>
       </c>
       <c r="D17">
-        <v>4.885405909066028</v>
+        <v>4.184280112084496</v>
       </c>
       <c r="E17">
-        <v>11.61534354889982</v>
+        <v>7.065545596648979</v>
       </c>
       <c r="F17">
-        <v>25.45773525419227</v>
+        <v>23.3059957674928</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.817717921181316</v>
+        <v>8.043302607075315</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.14819768412915</v>
+        <v>11.08243917117384</v>
       </c>
       <c r="O17">
-        <v>22.39916495663608</v>
+        <v>17.58076136064936</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.93735452347722</v>
+        <v>26.15586499460946</v>
       </c>
       <c r="C18">
-        <v>10.69915975231866</v>
+        <v>12.92806145362033</v>
       </c>
       <c r="D18">
-        <v>4.879063963711205</v>
+        <v>4.164152612733202</v>
       </c>
       <c r="E18">
-        <v>11.62298232970384</v>
+        <v>7.063391025066992</v>
       </c>
       <c r="F18">
-        <v>25.43402138970391</v>
+        <v>23.09515163169164</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.808427213557735</v>
+        <v>7.975611587623684</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.1608855380464</v>
+        <v>11.12457615425098</v>
       </c>
       <c r="O18">
-        <v>22.39753858226135</v>
+        <v>17.46445168509866</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.89338732059304</v>
+        <v>26.04121085247675</v>
       </c>
       <c r="C19">
-        <v>10.68452531611363</v>
+        <v>12.89135699892565</v>
       </c>
       <c r="D19">
-        <v>4.876912073037501</v>
+        <v>4.157313138902781</v>
       </c>
       <c r="E19">
-        <v>11.62560324694334</v>
+        <v>7.06277066408517</v>
       </c>
       <c r="F19">
-        <v>25.4261229093143</v>
+        <v>23.02380929421784</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.805308512121519</v>
+        <v>7.952643553021978</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.16521263435205</v>
+        <v>11.13890219217605</v>
       </c>
       <c r="O19">
-        <v>22.39709460874864</v>
+        <v>17.42528648918157</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.09053572516746</v>
+        <v>26.55371938642011</v>
       </c>
       <c r="C20">
-        <v>10.7501691161663</v>
+        <v>13.0557459143472</v>
       </c>
       <c r="D20">
-        <v>4.886577452427536</v>
+        <v>4.187993459869505</v>
       </c>
       <c r="E20">
-        <v>11.61394620003767</v>
+        <v>7.065996582281886</v>
       </c>
       <c r="F20">
-        <v>25.46218608462889</v>
+        <v>23.34503899057915</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.819450189906849</v>
+        <v>8.055807043791487</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.14586426439381</v>
+        <v>11.0746687289889</v>
       </c>
       <c r="O20">
-        <v>22.39951664023446</v>
+        <v>17.6023896383419</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.73995115648635</v>
+        <v>28.2157833832816</v>
       </c>
       <c r="C21">
-        <v>10.96687637918014</v>
+        <v>13.59413230020395</v>
       </c>
       <c r="D21">
-        <v>4.918721416105727</v>
+        <v>4.289306088071692</v>
       </c>
       <c r="E21">
-        <v>11.57718605639836</v>
+        <v>7.084659095883426</v>
       </c>
       <c r="F21">
-        <v>25.59236442088508</v>
+        <v>24.42690932897335</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.86881323925223</v>
+        <v>8.398803411343673</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.08302362170176</v>
+        <v>10.86300812103666</v>
       </c>
       <c r="O21">
-        <v>22.41507561426766</v>
+        <v>18.21224350569695</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.15406241053286</v>
+        <v>29.25794880979664</v>
       </c>
       <c r="C22">
-        <v>11.10549584522914</v>
+        <v>13.9354032045016</v>
       </c>
       <c r="D22">
-        <v>4.93947231688106</v>
+        <v>4.354140584173772</v>
       </c>
       <c r="E22">
-        <v>11.55495663310814</v>
+        <v>7.102961259802536</v>
       </c>
       <c r="F22">
-        <v>25.68406362455992</v>
+        <v>25.13528126112142</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.902419684276548</v>
+        <v>8.620057299839095</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.04356465002658</v>
+        <v>10.72782640454354</v>
       </c>
       <c r="O22">
-        <v>22.43077203741115</v>
+        <v>18.62168415733413</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.93402697072784</v>
+        <v>28.70572354801527</v>
       </c>
       <c r="C23">
-        <v>11.03179653963262</v>
+        <v>13.75424172873329</v>
       </c>
       <c r="D23">
-        <v>4.928421380498945</v>
+        <v>4.319667104492511</v>
       </c>
       <c r="E23">
-        <v>11.56665646612094</v>
+        <v>7.092616765030453</v>
       </c>
       <c r="F23">
-        <v>25.63452279002153</v>
+        <v>24.75712454308888</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.884362423331353</v>
+        <v>8.502248963112184</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.06447750582902</v>
+        <v>10.79968315590892</v>
       </c>
       <c r="O23">
-        <v>22.42188914826833</v>
+        <v>18.40217365178714</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.07975634695653</v>
+        <v>26.52580156323826</v>
       </c>
       <c r="C24">
-        <v>10.746578366317</v>
+        <v>13.04677029828355</v>
       </c>
       <c r="D24">
-        <v>4.886047891297605</v>
+        <v>4.186315136577341</v>
       </c>
       <c r="E24">
-        <v>11.6145773040244</v>
+        <v>7.065790691145124</v>
       </c>
       <c r="F24">
-        <v>25.46017153755001</v>
+        <v>23.32738708556737</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.818666558297615</v>
+        <v>8.050154795935766</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.14691862023178</v>
+        <v>11.07818060995908</v>
       </c>
       <c r="O24">
-        <v>22.39935571219266</v>
+        <v>17.59260777420253</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.11836764928993</v>
+        <v>23.98158931717859</v>
       </c>
       <c r="C25">
-        <v>10.42695016197747</v>
+        <v>12.23963385083391</v>
       </c>
       <c r="D25">
-        <v>4.839307638973628</v>
+        <v>4.036958910751845</v>
       </c>
       <c r="E25">
-        <v>11.67396139963776</v>
+        <v>7.061296484895996</v>
       </c>
       <c r="F25">
-        <v>25.3011208861387</v>
+        <v>21.79519522151929</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.753787459348533</v>
+        <v>7.551512982293065</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.24278948507242</v>
+        <v>11.39179914025686</v>
       </c>
       <c r="O25">
-        <v>22.39879228313004</v>
+        <v>16.7671928234698</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.93844168700815</v>
+        <v>20.27593215791321</v>
       </c>
       <c r="C2">
-        <v>11.60954327571731</v>
+        <v>19.39501518817037</v>
       </c>
       <c r="D2">
-        <v>3.922725042636094</v>
+        <v>5.192680674224196</v>
       </c>
       <c r="E2">
-        <v>7.077065275608837</v>
+        <v>12.9103885080162</v>
       </c>
       <c r="F2">
-        <v>20.68170796462399</v>
+        <v>40.02154750255079</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1.969540294857697</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.893600957418248</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>26.18308545147405</v>
       </c>
       <c r="L2">
-        <v>7.176991237037342</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.63390162751164</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.201837260683</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>18.2230468611039</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.44589414324163</v>
+        <v>18.91477498854578</v>
       </c>
       <c r="C3">
-        <v>11.16161623748368</v>
+        <v>18.05162006270132</v>
       </c>
       <c r="D3">
-        <v>3.842924756306074</v>
+        <v>5.106468096505118</v>
       </c>
       <c r="E3">
-        <v>7.098690699639952</v>
+        <v>12.09593830271685</v>
       </c>
       <c r="F3">
-        <v>19.94012234273499</v>
+        <v>37.90304230499187</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1.671707394647701</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.606915739267233</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>25.14430251034102</v>
       </c>
       <c r="L3">
-        <v>6.919926843520563</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.80492189256991</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>15.84571670366535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>17.10927859859343</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.47563157914551</v>
+        <v>18.03024785661768</v>
       </c>
       <c r="C4">
-        <v>10.87688016812903</v>
+        <v>17.18588900152149</v>
       </c>
       <c r="D4">
-        <v>3.792854432874145</v>
+        <v>5.050209181381713</v>
       </c>
       <c r="E4">
-        <v>7.117050836911814</v>
+        <v>11.57234756123715</v>
       </c>
       <c r="F4">
-        <v>19.49271788282078</v>
+        <v>36.54754179340478</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1.639526200239777</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.518510237682499</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>24.48350987276724</v>
       </c>
       <c r="L4">
-        <v>6.761028987845114</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.91335574900097</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>15.64052248393195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16.39129698058356</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.06661759492054</v>
+        <v>17.6567215149175</v>
       </c>
       <c r="C5">
-        <v>10.75851423087691</v>
+        <v>16.83123656069623</v>
       </c>
       <c r="D5">
-        <v>3.772197305744704</v>
+        <v>5.020936753301353</v>
       </c>
       <c r="E5">
-        <v>7.125764877361575</v>
+        <v>11.3509977185902</v>
       </c>
       <c r="F5">
-        <v>19.3126349718618</v>
+        <v>35.94401482232571</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1.719925236552976</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.600188011322274</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>24.17861324540858</v>
       </c>
       <c r="L5">
-        <v>6.696101835339162</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.95840589185112</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>15.5603016458922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>16.09130852947138</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.99787574355314</v>
+        <v>17.59306982470642</v>
       </c>
       <c r="C6">
-        <v>10.7387221322226</v>
+        <v>16.7821462527385</v>
       </c>
       <c r="D6">
-        <v>3.768752424748398</v>
+        <v>5.009299205857856</v>
       </c>
       <c r="E6">
-        <v>7.127284932274051</v>
+        <v>11.31141938519873</v>
       </c>
       <c r="F6">
-        <v>19.282874793695</v>
+        <v>35.79676123146408</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1.733838626503224</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.618387305839623</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>24.0908816157391</v>
       </c>
       <c r="L6">
-        <v>6.685312985910566</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.96593856617623</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>15.54718632177534</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>16.04234398531933</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.47017075203209</v>
+        <v>18.02289170698066</v>
       </c>
       <c r="C7">
-        <v>10.87529314019063</v>
+        <v>17.20888122653971</v>
       </c>
       <c r="D7">
-        <v>3.792576845642866</v>
+        <v>5.031512665715045</v>
       </c>
       <c r="E7">
-        <v>7.117163428518851</v>
+        <v>11.56277926635819</v>
       </c>
       <c r="F7">
-        <v>19.49027983166659</v>
+        <v>36.41542604537469</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1.641894894493475</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.531824806970157</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>24.38022470200358</v>
       </c>
       <c r="L7">
-        <v>6.760153939525127</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.91395981709958</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>15.63942683545832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>16.39090548149595</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.43493087197402</v>
+        <v>19.81366858804423</v>
       </c>
       <c r="C8">
-        <v>11.45717254917373</v>
+        <v>18.97380740835327</v>
       </c>
       <c r="D8">
-        <v>3.895442242868585</v>
+        <v>5.139837568163701</v>
       </c>
       <c r="E8">
-        <v>7.08343915588953</v>
+        <v>12.62615171426629</v>
       </c>
       <c r="F8">
-        <v>20.42450557348938</v>
+        <v>39.14855109909922</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1.866304065926435</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.796346757038095</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>25.70432834386569</v>
       </c>
       <c r="L8">
-        <v>7.088627579544375</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.69215838118827</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>16.07626269803868</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.85051743404133</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.86473385698725</v>
+        <v>22.94667023901437</v>
       </c>
       <c r="C9">
-        <v>12.51724014220585</v>
+        <v>22.07223300714718</v>
       </c>
       <c r="D9">
-        <v>4.087966397921861</v>
+        <v>5.3577157848933</v>
       </c>
       <c r="E9">
-        <v>7.059717589315893</v>
+        <v>14.53880409319917</v>
       </c>
       <c r="F9">
-        <v>22.30950047343503</v>
+        <v>44.263330367971</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.583528986301221</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.490423446205421</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>28.27697735230077</v>
       </c>
       <c r="L9">
-        <v>7.720784456641325</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.28441040866084</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>17.03873591253139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>20.43503310685902</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.13246383572386</v>
+        <v>25.07917591815156</v>
       </c>
       <c r="C10">
-        <v>13.24233530491969</v>
+        <v>24.1360464733728</v>
       </c>
       <c r="D10">
-        <v>4.222964552967556</v>
+        <v>5.407338177484069</v>
       </c>
       <c r="E10">
-        <v>7.071056619743363</v>
+        <v>15.33892869614127</v>
       </c>
       <c r="F10">
-        <v>23.71489586220159</v>
+        <v>47.17968017764081</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3.060424069590697</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.973746797008405</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>29.61280504313098</v>
       </c>
       <c r="L10">
-        <v>8.173808677011632</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.00153744685359</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.80863491089327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>21.89705827018456</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.11066531630858</v>
+        <v>26.50545402276664</v>
       </c>
       <c r="C11">
-        <v>13.55985927888273</v>
+        <v>24.7579816322089</v>
       </c>
       <c r="D11">
-        <v>4.282820340472838</v>
+        <v>4.737075976816835</v>
       </c>
       <c r="E11">
-        <v>7.083099661054503</v>
+        <v>11.86381913408915</v>
       </c>
       <c r="F11">
-        <v>24.35671797296759</v>
+        <v>43.96542421423769</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3.656011733115303</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.095053859712197</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.75481634819396</v>
       </c>
       <c r="L11">
-        <v>8.376743455354765</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.87654104261872</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>18.17208920833373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>20.20205366966808</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.47351587396847</v>
+        <v>27.29119572664861</v>
       </c>
       <c r="C12">
-        <v>13.67828313597225</v>
+        <v>24.83495529158314</v>
       </c>
       <c r="D12">
-        <v>4.305250647081039</v>
+        <v>4.308715124266201</v>
       </c>
       <c r="E12">
-        <v>7.08870323038769</v>
+        <v>9.739045171298503</v>
       </c>
       <c r="F12">
-        <v>24.59999268405221</v>
+        <v>40.77579510279782</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.676816806482989</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.108120619762085</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>24.19142120566441</v>
       </c>
       <c r="L12">
-        <v>8.453092944264652</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.82974701674793</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>18.31158757789337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.44707730298974</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.39570459746576</v>
+        <v>27.65454546471121</v>
       </c>
       <c r="C13">
-        <v>13.65285976967452</v>
+        <v>24.5316638151242</v>
       </c>
       <c r="D13">
-        <v>4.300430546779676</v>
+        <v>4.049485111239245</v>
       </c>
       <c r="E13">
-        <v>7.087449157362917</v>
+        <v>9.10191623757639</v>
       </c>
       <c r="F13">
-        <v>24.54759058048388</v>
+        <v>37.16104722819227</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.845031438054544</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.038939597712708</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.52324800793476</v>
       </c>
       <c r="L13">
-        <v>8.436672456424279</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.83980077202992</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.28146160709286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>16.49167097082052</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.14066840460174</v>
+        <v>27.72445915096384</v>
       </c>
       <c r="C14">
-        <v>13.56963867972892</v>
+        <v>24.1514313531639</v>
       </c>
       <c r="D14">
-        <v>4.284670486153002</v>
+        <v>3.981354666032323</v>
       </c>
       <c r="E14">
-        <v>7.083539458325849</v>
+        <v>9.726219129634647</v>
       </c>
       <c r="F14">
-        <v>24.3767283338202</v>
+        <v>34.36393234115477</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.717550395682535</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.955242967693122</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>19.57767744703892</v>
       </c>
       <c r="L14">
-        <v>8.383034967906397</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.87268039373462</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>18.18352860371684</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.00733124633308</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.9834683453833</v>
+        <v>27.64980472614352</v>
       </c>
       <c r="C15">
-        <v>13.51842580591269</v>
+        <v>23.98358561500221</v>
       </c>
       <c r="D15">
-        <v>4.2749859477234</v>
+        <v>3.982859812402759</v>
       </c>
       <c r="E15">
-        <v>7.08128208534326</v>
+        <v>9.979486542867063</v>
       </c>
       <c r="F15">
-        <v>24.27209702005432</v>
+        <v>33.54488542078816</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.915488112576281</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.91630873350205</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>19.04980455289038</v>
       </c>
       <c r="L15">
-        <v>8.350114497412369</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.892890693997</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>18.12378388962854</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.6002393821927</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.06747046042079</v>
+        <v>26.74183856185433</v>
       </c>
       <c r="C16">
-        <v>13.22133242355227</v>
+        <v>23.19237752145085</v>
       </c>
       <c r="D16">
-        <v>4.219020476383266</v>
+        <v>4.00993421840371</v>
       </c>
       <c r="E16">
-        <v>7.070412647232074</v>
+        <v>9.614857350992015</v>
       </c>
       <c r="F16">
-        <v>23.67298985145415</v>
+        <v>32.7254301480059</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.623134564461726</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.726294316925732</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.85648104103213</v>
       </c>
       <c r="L16">
-        <v>8.160479018380361</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.00978114570737</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.7851452499841</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.24698685315457</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.49193222894982</v>
+        <v>25.98774795325072</v>
       </c>
       <c r="C17">
-        <v>13.0358844443592</v>
+        <v>22.78556688666643</v>
       </c>
       <c r="D17">
-        <v>4.184280112084496</v>
+        <v>4.046119860838853</v>
       </c>
       <c r="E17">
-        <v>7.065545596648979</v>
+        <v>8.792405898201073</v>
       </c>
       <c r="F17">
-        <v>23.3059957674928</v>
+        <v>33.64778894569289</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.880449083831912</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.623939806447385</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.75790569485424</v>
       </c>
       <c r="L17">
-        <v>8.043302607075315</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.08243917117384</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.58076136064936</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.80085885017616</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.15586499460946</v>
+        <v>25.29692980958846</v>
       </c>
       <c r="C18">
-        <v>12.92806145362033</v>
+        <v>22.65789739840908</v>
       </c>
       <c r="D18">
-        <v>4.164152612733202</v>
+        <v>4.194864448801728</v>
       </c>
       <c r="E18">
-        <v>7.063391025066992</v>
+        <v>8.479197627257108</v>
       </c>
       <c r="F18">
-        <v>23.09515163169164</v>
+        <v>36.26832986472342</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.720103887326252</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.589554860574272</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.7991339634364</v>
       </c>
       <c r="L18">
-        <v>7.975611587623684</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.12457615425098</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.46445168509866</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.20196595495862</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.04121085247675</v>
+        <v>24.72169315266207</v>
       </c>
       <c r="C19">
-        <v>12.89135699892565</v>
+        <v>22.8122550789157</v>
       </c>
       <c r="D19">
-        <v>4.157313138902781</v>
+        <v>4.539211145655758</v>
       </c>
       <c r="E19">
-        <v>7.06277066408517</v>
+        <v>10.10707913952256</v>
       </c>
       <c r="F19">
-        <v>23.02380929421784</v>
+        <v>39.83719274011884</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.511920944607387</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.625359604350005</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>24.47513220375128</v>
       </c>
       <c r="L19">
-        <v>7.952643553021978</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.13890219217605</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.42528648918157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>18.16533338868686</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.55371938642011</v>
+        <v>24.53106777751056</v>
       </c>
       <c r="C20">
-        <v>13.0557459143472</v>
+        <v>23.66921478271733</v>
       </c>
       <c r="D20">
-        <v>4.187993459869505</v>
+        <v>5.338891087647569</v>
       </c>
       <c r="E20">
-        <v>7.065996582281886</v>
+        <v>15.09067060882703</v>
       </c>
       <c r="F20">
-        <v>23.34503899057915</v>
+        <v>46.09430711000937</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2.930527781345118</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.848897241577256</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>28.98790301410193</v>
       </c>
       <c r="L20">
-        <v>8.055807043791487</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.0746687289889</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.6023896383419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>21.51799558559456</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.2157833832816</v>
+        <v>26.00723749960038</v>
       </c>
       <c r="C21">
-        <v>13.59413230020395</v>
+        <v>25.23553339549985</v>
       </c>
       <c r="D21">
-        <v>4.289306088071692</v>
+        <v>5.516029010377651</v>
       </c>
       <c r="E21">
-        <v>7.084659095883426</v>
+        <v>16.45052773389101</v>
       </c>
       <c r="F21">
-        <v>24.42690932897335</v>
+        <v>49.1123496683954</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>3.336375624319646</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.233987193568456</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>30.64119473589154</v>
       </c>
       <c r="L21">
-        <v>8.398803411343673</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.86300812103666</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>18.21224350569695</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>23.00987404883412</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.25794880979664</v>
+        <v>26.96594850551702</v>
       </c>
       <c r="C22">
-        <v>13.9354032045016</v>
+        <v>26.18527667030623</v>
       </c>
       <c r="D22">
-        <v>4.354140584173772</v>
+        <v>5.607028952972497</v>
       </c>
       <c r="E22">
-        <v>7.102961259802536</v>
+        <v>17.07161368833753</v>
       </c>
       <c r="F22">
-        <v>25.13528126112142</v>
+        <v>50.88963824160418</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>3.585254476228757</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.477901373478822</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>31.60060393728121</v>
       </c>
       <c r="L22">
-        <v>8.620057299839095</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.72782640454354</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>18.62168415733413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>23.81152369009545</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.70572354801527</v>
+        <v>26.46025970780556</v>
       </c>
       <c r="C23">
-        <v>13.75424172873329</v>
+        <v>25.65842481569942</v>
       </c>
       <c r="D23">
-        <v>4.319667104492511</v>
+        <v>5.578544924299999</v>
       </c>
       <c r="E23">
-        <v>7.092616765030453</v>
+        <v>16.74798934779142</v>
       </c>
       <c r="F23">
-        <v>24.75712454308888</v>
+        <v>50.05739845027696</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>3.454015751747268</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.347419938476478</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>31.18594176270637</v>
       </c>
       <c r="L23">
-        <v>8.502248963112184</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.79968315590892</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>18.40217365178714</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>23.38342156317728</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.52580156323826</v>
+        <v>24.46256030555128</v>
       </c>
       <c r="C24">
-        <v>13.04677029828355</v>
+        <v>23.6348920021616</v>
       </c>
       <c r="D24">
-        <v>4.186315136577341</v>
+        <v>5.434231592370095</v>
       </c>
       <c r="E24">
-        <v>7.065790691145124</v>
+        <v>15.47784203859668</v>
       </c>
       <c r="F24">
-        <v>23.32738708556737</v>
+        <v>46.63214225576692</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.949444290974833</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.850550410368781</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>29.42336500752437</v>
       </c>
       <c r="L24">
-        <v>8.050154795935766</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.07818060995908</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.59260777420253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>21.70724238600191</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.98158931717859</v>
+        <v>22.13553849513944</v>
       </c>
       <c r="C25">
-        <v>12.23963385083391</v>
+        <v>21.3082906236915</v>
       </c>
       <c r="D25">
-        <v>4.036958910751845</v>
+        <v>5.270014999895841</v>
       </c>
       <c r="E25">
-        <v>7.061296484895996</v>
+        <v>14.03001965173658</v>
       </c>
       <c r="F25">
-        <v>21.79519522151929</v>
+        <v>42.73567433671447</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.391331478116834</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.306455008771124</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>27.44156987656253</v>
       </c>
       <c r="L25">
-        <v>7.551512982293065</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.39179914025686</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>16.7671928234698</v>
+        <v>19.77039204892614</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.27593215791321</v>
+        <v>20.25902719314453</v>
       </c>
       <c r="C2">
-        <v>19.39501518817037</v>
+        <v>20.72988801698401</v>
       </c>
       <c r="D2">
-        <v>5.192680674224196</v>
+        <v>4.310210604937579</v>
       </c>
       <c r="E2">
-        <v>12.9103885080162</v>
+        <v>12.77017116142642</v>
       </c>
       <c r="F2">
-        <v>40.02154750255079</v>
+        <v>33.77568222528858</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.969540294857697</v>
+        <v>1.990126811118723</v>
       </c>
       <c r="I2">
-        <v>2.893600957418248</v>
+        <v>2.94625803071466</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>26.18308545147405</v>
+        <v>21.05214322193943</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>17.52276196123311</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.00952401292697</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.2230468611039</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>18.43059233008028</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.91477498854578</v>
+        <v>18.92573562432534</v>
       </c>
       <c r="C3">
-        <v>18.05162006270132</v>
+        <v>19.25984066531742</v>
       </c>
       <c r="D3">
-        <v>5.106468096505118</v>
+        <v>4.31183096228587</v>
       </c>
       <c r="E3">
-        <v>12.09593830271685</v>
+        <v>12.01997397225565</v>
       </c>
       <c r="F3">
-        <v>37.90304230499187</v>
+        <v>32.27248981850978</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.671707394647701</v>
+        <v>1.712082642245686</v>
       </c>
       <c r="I3">
-        <v>2.606915739267233</v>
+        <v>2.7005846630349</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>25.14430251034102</v>
+        <v>20.55202730158208</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>17.33250848693469</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.40521703141</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.10927859859343</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>17.30424450474476</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.03024785661768</v>
+        <v>18.05863521986007</v>
       </c>
       <c r="C4">
-        <v>17.18588900152149</v>
+        <v>18.31033075176802</v>
       </c>
       <c r="D4">
-        <v>5.050209181381713</v>
+        <v>4.310774987068885</v>
       </c>
       <c r="E4">
-        <v>11.57234756123715</v>
+        <v>11.53754596593627</v>
       </c>
       <c r="F4">
-        <v>36.54754179340478</v>
+        <v>31.31570851744437</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.639526200239777</v>
+        <v>1.585575923171892</v>
       </c>
       <c r="I4">
-        <v>2.518510237682499</v>
+        <v>2.54629853922608</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>24.48350987276724</v>
+        <v>20.23546657128255</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>17.20341160453122</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.04110062846797</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.39129698058356</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>16.57751838826981</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.6567215149175</v>
+        <v>17.69242398600778</v>
       </c>
       <c r="C5">
-        <v>16.83123656069623</v>
+        <v>17.91858783641204</v>
       </c>
       <c r="D5">
-        <v>5.020936753301353</v>
+        <v>4.30714687848101</v>
       </c>
       <c r="E5">
-        <v>11.3509977185902</v>
+        <v>11.33380689851954</v>
       </c>
       <c r="F5">
-        <v>35.94401482232571</v>
+        <v>30.88749576749513</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.719925236552976</v>
+        <v>1.660741583765164</v>
       </c>
       <c r="I5">
-        <v>2.600188011322274</v>
+        <v>2.483300651610913</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>24.17861324540858</v>
+        <v>20.08148847515276</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>17.13010759550254</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.87813960444214</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.09130852947138</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>16.27350509727979</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.59306982470642</v>
+        <v>17.63012208388456</v>
       </c>
       <c r="C6">
-        <v>16.7821462527385</v>
+        <v>17.86148554684209</v>
       </c>
       <c r="D6">
-        <v>5.009299205857856</v>
+        <v>4.303251567432811</v>
       </c>
       <c r="E6">
-        <v>11.31141938519873</v>
+        <v>11.297635160554</v>
       </c>
       <c r="F6">
-        <v>35.79676123146408</v>
+        <v>30.77908292575119</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.733838626503224</v>
+        <v>1.673699351592178</v>
       </c>
       <c r="I6">
-        <v>2.618387305839623</v>
+        <v>2.48802486507264</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>24.0908816157391</v>
+        <v>20.02811791739782</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>17.09628624918565</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.83068771375242</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.04234398531933</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>16.22359450719107</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.02289170698066</v>
+        <v>18.05173171384759</v>
       </c>
       <c r="C7">
-        <v>17.20888122653971</v>
+        <v>18.32814372314299</v>
       </c>
       <c r="D7">
-        <v>5.031512665715045</v>
+        <v>4.301927661549318</v>
       </c>
       <c r="E7">
-        <v>11.56277926635819</v>
+        <v>11.52944287294943</v>
       </c>
       <c r="F7">
-        <v>36.41542604537469</v>
+        <v>31.21115058611371</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.641894894493475</v>
+        <v>1.587641848358541</v>
       </c>
       <c r="I7">
-        <v>2.531824806970157</v>
+        <v>2.548129574516973</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>24.38022470200358</v>
+        <v>20.15866661138353</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>17.14494081307755</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.98286174086851</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.39090548149595</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>16.57637307518514</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.81366858804423</v>
+        <v>19.80681825807639</v>
       </c>
       <c r="C8">
-        <v>18.97380740835327</v>
+        <v>20.26058907331356</v>
       </c>
       <c r="D8">
-        <v>5.139837568163701</v>
+        <v>4.300087481493291</v>
       </c>
       <c r="E8">
-        <v>12.62615171426629</v>
+        <v>12.50935251531713</v>
       </c>
       <c r="F8">
-        <v>39.14855109909922</v>
+        <v>33.14153309113504</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.866304065926435</v>
+        <v>1.894006124124361</v>
       </c>
       <c r="I8">
-        <v>2.796346757038095</v>
+        <v>2.864596037027612</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>25.70432834386569</v>
+        <v>20.78657459466273</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>17.38828359982478</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.72692686561224</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.85051743404133</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>18.05309450480985</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.94667023901437</v>
+        <v>22.87042611024665</v>
       </c>
       <c r="C9">
-        <v>22.07223300714718</v>
+        <v>23.64695091354396</v>
       </c>
       <c r="D9">
-        <v>5.3577157848933</v>
+        <v>4.294730176143225</v>
       </c>
       <c r="E9">
-        <v>14.53880409319917</v>
+        <v>14.26820329613847</v>
       </c>
       <c r="F9">
-        <v>44.263330367971</v>
+        <v>36.81096635317619</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.583528986301221</v>
+        <v>2.561882284118736</v>
       </c>
       <c r="I9">
-        <v>3.490423446205421</v>
+        <v>3.457195494131631</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>28.27697735230077</v>
+        <v>22.06813476062814</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>17.86394089263345</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>15.32098134099168</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.43503310685902</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>20.66370146249294</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.07917591815156</v>
+        <v>24.95417516551552</v>
       </c>
       <c r="C10">
-        <v>24.1360464733728</v>
+        <v>25.86667907129747</v>
       </c>
       <c r="D10">
-        <v>5.407338177484069</v>
+        <v>4.243338028650056</v>
       </c>
       <c r="E10">
-        <v>15.33892869614127</v>
+        <v>14.96815111170547</v>
       </c>
       <c r="F10">
-        <v>47.17968017764081</v>
+        <v>38.90694151068447</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.060424069590697</v>
+        <v>3.004265715206231</v>
       </c>
       <c r="I10">
-        <v>3.973746797008405</v>
+        <v>3.870844896103941</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>29.61280504313098</v>
+        <v>22.65874375194205</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>17.93940406626573</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.25402753017607</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.89705827018456</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>22.13575416464234</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.50545402276664</v>
+        <v>26.38249837632663</v>
       </c>
       <c r="C11">
-        <v>24.7579816322089</v>
+        <v>26.34120559966319</v>
       </c>
       <c r="D11">
-        <v>4.737075976816835</v>
+        <v>4.012733131548075</v>
       </c>
       <c r="E11">
-        <v>11.86381913408915</v>
+        <v>11.51562236948592</v>
       </c>
       <c r="F11">
-        <v>43.96542421423769</v>
+        <v>36.44269231320892</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.656011733115303</v>
+        <v>3.60883037045282</v>
       </c>
       <c r="I11">
-        <v>4.095053859712197</v>
+        <v>3.986950210061117</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>26.75481634819396</v>
+        <v>20.50405795582476</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>16.24985585251641</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.76926055425936</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.20205366966808</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>20.41748783770459</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.29119572664861</v>
+        <v>27.17795952524288</v>
       </c>
       <c r="C12">
-        <v>24.83495529158314</v>
+        <v>26.26503843488991</v>
       </c>
       <c r="D12">
-        <v>4.308715124266201</v>
+        <v>3.964341532600135</v>
       </c>
       <c r="E12">
-        <v>9.739045171298503</v>
+        <v>9.457166782275642</v>
       </c>
       <c r="F12">
-        <v>40.77579510279782</v>
+        <v>34.0243637943599</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.676816806482989</v>
+        <v>4.643712163861407</v>
       </c>
       <c r="I12">
-        <v>4.108120619762085</v>
+        <v>4.005469410571687</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>24.19142120566441</v>
+        <v>18.66628565481514</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.91313498547184</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.38142723845261</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.44707730298974</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.64079498906075</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.65454546471121</v>
+        <v>27.55802551408709</v>
       </c>
       <c r="C13">
-        <v>24.5316638151242</v>
+        <v>25.78394803022919</v>
       </c>
       <c r="D13">
-        <v>4.049485111239245</v>
+        <v>4.036431780467469</v>
       </c>
       <c r="E13">
-        <v>9.10191623757639</v>
+        <v>8.944720327518207</v>
       </c>
       <c r="F13">
-        <v>37.16104722819227</v>
+        <v>31.29736603713284</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.845031438054544</v>
+        <v>5.82398056883599</v>
       </c>
       <c r="I13">
-        <v>4.038939597712708</v>
+        <v>3.952145155435024</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>21.52324800793476</v>
+        <v>16.83877245623605</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.67577547170437</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.87821636360767</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.49167097082052</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>16.66155649390133</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.72445915096384</v>
+        <v>27.6425331196739</v>
       </c>
       <c r="C14">
-        <v>24.1514313531639</v>
+        <v>25.26374496617916</v>
       </c>
       <c r="D14">
-        <v>3.981354666032323</v>
+        <v>4.151187954225408</v>
       </c>
       <c r="E14">
-        <v>9.726219129634647</v>
+        <v>9.6628372303985</v>
       </c>
       <c r="F14">
-        <v>34.36393234115477</v>
+        <v>29.19155695658434</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.717550395682535</v>
+        <v>6.703161026526877</v>
       </c>
       <c r="I14">
-        <v>3.955242967693122</v>
+        <v>3.884144397630449</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>19.57767744703892</v>
+        <v>15.55140027295596</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.84596547335874</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.75462495151242</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.00733124633308</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>15.15866741780031</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.64980472614352</v>
+        <v>27.5731951702982</v>
       </c>
       <c r="C15">
-        <v>23.98358561500221</v>
+        <v>25.05447931222546</v>
       </c>
       <c r="D15">
-        <v>3.982859812402759</v>
+        <v>4.188361438737283</v>
       </c>
       <c r="E15">
-        <v>9.979486542867063</v>
+        <v>9.938718420955144</v>
       </c>
       <c r="F15">
-        <v>33.54488542078816</v>
+        <v>28.57656367974631</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.915488112576281</v>
+        <v>6.902953438532395</v>
       </c>
       <c r="I15">
-        <v>3.91630873350205</v>
+        <v>3.852071001094896</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>19.04980455289038</v>
+        <v>15.21775976663381</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.64328798352926</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.43990183114776</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.6002393821927</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.74631991321913</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.74183856185433</v>
+        <v>26.68194228836281</v>
       </c>
       <c r="C16">
-        <v>23.19237752145085</v>
+        <v>24.21534191572618</v>
       </c>
       <c r="D16">
-        <v>4.00993421840371</v>
+        <v>4.176229394646224</v>
       </c>
       <c r="E16">
-        <v>9.614857350992015</v>
+        <v>9.605524027543375</v>
       </c>
       <c r="F16">
-        <v>32.7254301480059</v>
+        <v>27.99625602310045</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.623134564461726</v>
+        <v>6.615539036284006</v>
       </c>
       <c r="I16">
-        <v>3.726294316925732</v>
+        <v>3.688621100403151</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>18.85648104103213</v>
+        <v>15.2382660478504</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.75819286583336</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.26136677015981</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.24698685315457</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.38992676972495</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.98774795325072</v>
+        <v>25.93315860238464</v>
       </c>
       <c r="C17">
-        <v>22.78556688666643</v>
+        <v>23.85020176048268</v>
       </c>
       <c r="D17">
-        <v>4.046119860838853</v>
+        <v>4.099840908957512</v>
       </c>
       <c r="E17">
-        <v>8.792405898201073</v>
+        <v>8.767227509633972</v>
       </c>
       <c r="F17">
-        <v>33.64778894569289</v>
+        <v>28.71969795757223</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.880449083831912</v>
+        <v>5.874376158576564</v>
       </c>
       <c r="I17">
-        <v>3.623939806447385</v>
+        <v>3.598758272452841</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>19.75790569485424</v>
+        <v>15.94002629387296</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.29603230603408</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.73053994954922</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.80085885017616</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.95212732390851</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.29692980958846</v>
+        <v>25.23764853928726</v>
       </c>
       <c r="C18">
-        <v>22.65789739840908</v>
+        <v>23.85040230082169</v>
       </c>
       <c r="D18">
-        <v>4.194864448801728</v>
+        <v>4.013983322331662</v>
       </c>
       <c r="E18">
-        <v>8.479197627257108</v>
+        <v>8.375730749121734</v>
       </c>
       <c r="F18">
-        <v>36.26832986472342</v>
+        <v>30.71768236040225</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.720103887326252</v>
+        <v>4.712116112479345</v>
       </c>
       <c r="I18">
-        <v>3.589554860574272</v>
+        <v>3.563660748938006</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>21.7991339634364</v>
+        <v>17.3853439631108</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.33502884367556</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.84923433788285</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.20196595495862</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.37286242843109</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.72169315266207</v>
+        <v>24.64934836466168</v>
       </c>
       <c r="C19">
-        <v>22.8122550789157</v>
+        <v>24.18226436870423</v>
       </c>
       <c r="D19">
-        <v>4.539211145655758</v>
+        <v>4.018217966895486</v>
       </c>
       <c r="E19">
-        <v>10.10707913952256</v>
+        <v>9.896791288606993</v>
       </c>
       <c r="F19">
-        <v>39.83719274011884</v>
+        <v>33.41190295056123</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.511920944607387</v>
+        <v>3.495942156679636</v>
       </c>
       <c r="I19">
-        <v>3.625359604350005</v>
+        <v>3.588752430273494</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>24.47513220375128</v>
+        <v>19.23793354537653</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.65607774838473</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.31795818673579</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.16533338868686</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.36140461637084</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.53106777751056</v>
+        <v>24.4204091345428</v>
       </c>
       <c r="C20">
-        <v>23.66921478271733</v>
+        <v>25.34861805606059</v>
       </c>
       <c r="D20">
-        <v>5.338891087647569</v>
+        <v>4.23338566607563</v>
       </c>
       <c r="E20">
-        <v>15.09067060882703</v>
+        <v>14.75027533048458</v>
       </c>
       <c r="F20">
-        <v>46.09430711000937</v>
+        <v>38.0990052613674</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.930527781345118</v>
+        <v>2.884322665789213</v>
       </c>
       <c r="I20">
-        <v>3.848897241577256</v>
+        <v>3.768686817322633</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>28.98790301410193</v>
+        <v>22.29089803767778</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>17.76715022167194</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.84051889654964</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.51799558559456</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>21.75265759131373</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.00723749960038</v>
+        <v>25.85371842709791</v>
       </c>
       <c r="C21">
-        <v>25.23553339549985</v>
+        <v>27.06587719664765</v>
       </c>
       <c r="D21">
-        <v>5.516029010377651</v>
+        <v>4.247163566167313</v>
       </c>
       <c r="E21">
-        <v>16.45052773389101</v>
+        <v>16.0221393615847</v>
       </c>
       <c r="F21">
-        <v>49.1123496683954</v>
+        <v>40.30846629908306</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.336375624319646</v>
+        <v>3.26040218157999</v>
       </c>
       <c r="I21">
-        <v>4.233987193568456</v>
+        <v>4.094855909423891</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>30.64119473589154</v>
+        <v>23.20023398602544</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>18.1491950211567</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.92093986237023</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.00987404883412</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>23.25533364689521</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.96594850551702</v>
+        <v>26.78460327073314</v>
       </c>
       <c r="C22">
-        <v>26.18527667030623</v>
+        <v>28.10004835442115</v>
       </c>
       <c r="D22">
-        <v>5.607028952972497</v>
+        <v>4.246765390123538</v>
       </c>
       <c r="E22">
-        <v>17.07161368833753</v>
+        <v>16.58824211344082</v>
       </c>
       <c r="F22">
-        <v>50.88963824160418</v>
+        <v>41.61730410751041</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.585254476228757</v>
+        <v>3.490105250508067</v>
       </c>
       <c r="I22">
-        <v>4.477901373478822</v>
+        <v>4.299872771813379</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>31.60060393728121</v>
+        <v>23.72608772182337</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>18.34554710600443</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>17.57529227025347</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.81152369009545</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>24.06173811385232</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.46025970780556</v>
+        <v>26.29331316845748</v>
       </c>
       <c r="C23">
-        <v>25.65842481569942</v>
+        <v>27.53247188777044</v>
       </c>
       <c r="D23">
-        <v>5.578544924299999</v>
+        <v>4.255711114061797</v>
       </c>
       <c r="E23">
-        <v>16.74798934779142</v>
+        <v>16.29255440454593</v>
       </c>
       <c r="F23">
-        <v>50.05739845027696</v>
+        <v>41.01100800255873</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.454015751747268</v>
+        <v>3.368808432380389</v>
       </c>
       <c r="I23">
-        <v>4.347419938476478</v>
+        <v>4.188503797093357</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>31.18594176270637</v>
+        <v>23.51994545559454</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>18.29429594444405</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>17.28428102758166</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.38342156317728</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>23.6317816691976</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.46256030555128</v>
+        <v>24.34957429893099</v>
       </c>
       <c r="C24">
-        <v>23.6348920021616</v>
+        <v>25.3376349675938</v>
       </c>
       <c r="D24">
-        <v>5.434231592370095</v>
+        <v>4.272379199491172</v>
       </c>
       <c r="E24">
-        <v>15.47784203859668</v>
+        <v>15.13080624293757</v>
       </c>
       <c r="F24">
-        <v>46.63214225576692</v>
+        <v>38.51310439698327</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.949444290974833</v>
+        <v>2.901818747846875</v>
       </c>
       <c r="I24">
-        <v>3.850550410368781</v>
+        <v>3.766279586402836</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>29.42336500752437</v>
+        <v>22.60995095818645</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>18.00162958109901</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.08498670548983</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.70724238600191</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>21.9451072927078</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.13553849513944</v>
+        <v>22.0788264622352</v>
       </c>
       <c r="C25">
-        <v>21.3082906236915</v>
+        <v>22.80338089759556</v>
       </c>
       <c r="D25">
-        <v>5.270014999895841</v>
+        <v>4.283786956554798</v>
       </c>
       <c r="E25">
-        <v>14.03001965173658</v>
+        <v>13.80211134716125</v>
       </c>
       <c r="F25">
-        <v>42.73567433671447</v>
+        <v>35.694560175421</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.391331478116834</v>
+        <v>2.383484110517012</v>
       </c>
       <c r="I25">
-        <v>3.306455008771124</v>
+        <v>3.302753739658577</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>27.44156987656253</v>
+        <v>21.60673875018691</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>17.65520863987349</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.79220918275544</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.77039204892614</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>19.99195632894185</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
